--- a/data/통합파일.xlsx
+++ b/data/통합파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sma\Project_Can\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B0169-63A1-4FF3-8422-22EA4D236695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF42F57-FA22-4791-B68A-76557A7FF85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2715" yWindow="1215" windowWidth="10995" windowHeight="13365" xr2:uid="{B2B468B2-C258-4357-B83F-3FA22EAA3DE4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>강남구</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시군구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지 역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,6 +361,14 @@
   </si>
   <si>
     <t>은행 점포수(개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천중구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG_KOR_NM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E106CE24-ADA8-4BCC-8556-0B676BCE14A5}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,36 +773,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -828,7 +832,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -858,7 +862,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -888,7 +892,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -918,7 +922,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -948,7 +952,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -978,7 +982,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1008,7 +1012,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1038,7 +1042,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1068,7 +1072,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1098,7 +1102,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1128,7 +1132,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1158,7 +1162,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1188,7 +1192,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1218,7 +1222,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1248,7 +1252,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1278,7 +1282,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1308,7 +1312,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1338,7 +1342,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1368,7 +1372,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1398,7 +1402,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1428,7 +1432,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1458,7 +1462,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1488,7 +1492,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1518,7 +1522,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1548,10 +1552,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>23677</v>
@@ -1578,10 +1582,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>32422</v>
@@ -1608,10 +1612,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>19981</v>
@@ -1638,10 +1642,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>25490</v>
@@ -1668,10 +1672,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>32459</v>
@@ -1698,10 +1702,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>38340</v>
@@ -1728,10 +1732,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>52156</v>
@@ -1758,10 +1762,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1">
         <v>32391</v>
@@ -1788,10 +1792,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1">
         <v>53277</v>
@@ -1818,10 +1822,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1">
         <v>58203</v>
@@ -1848,10 +1852,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1">
         <v>46728</v>
@@ -1878,10 +1882,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>171050</v>
@@ -1908,10 +1912,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
         <v>70631</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>42597</v>
@@ -1968,10 +1972,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <v>64168</v>
@@ -1998,10 +2002,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>44815</v>
@@ -2028,10 +2032,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>49500</v>
@@ -2058,10 +2062,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
         <v>45865</v>
@@ -2088,10 +2092,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
         <v>17564</v>
@@ -2118,10 +2122,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
         <v>43543</v>
@@ -2148,10 +2152,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1">
         <v>118128</v>
@@ -2178,10 +2182,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="1">
         <v>96609</v>
@@ -2208,10 +2212,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1">
         <v>61680</v>
@@ -2238,10 +2242,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1">
         <v>45107</v>
@@ -2268,10 +2272,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="1">
         <v>72065</v>
@@ -2298,10 +2302,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1">
         <v>46349</v>
@@ -2328,10 +2332,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1">
         <v>50231</v>
@@ -2358,10 +2362,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1">
         <v>32269</v>
@@ -2388,10 +2392,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1">
         <v>43844</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1">
         <v>37835</v>
@@ -2448,10 +2452,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
         <v>16246</v>
@@ -2478,10 +2482,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1">
         <v>72814</v>
@@ -2508,10 +2512,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1">
         <v>54580</v>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1">
         <v>26414</v>
@@ -2568,10 +2572,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1">
         <v>16312</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
         <v>30619</v>
@@ -2628,10 +2632,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1">
         <v>57881</v>
@@ -2658,10 +2662,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1">
         <v>79544</v>
@@ -2688,10 +2692,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="1">
         <v>27990</v>
@@ -2718,10 +2722,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="1">
         <v>60904</v>
@@ -2748,10 +2752,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="1">
         <v>32800</v>
@@ -2778,10 +2782,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1">
         <v>20579</v>
@@ -2808,10 +2812,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1">
         <v>32642</v>
@@ -2838,10 +2842,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1">
         <v>24993</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1">
         <v>15951</v>
@@ -2898,10 +2902,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="1">
         <v>91988</v>
@@ -2928,10 +2932,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="1">
         <v>52178</v>

--- a/data/통합파일.xlsx
+++ b/data/통합파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sma\Project_Can\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seungjun\Desktop\BIGDATA_edu\Project_Can\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF42F57-FA22-4791-B68A-76557A7FF85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D690405-BC25-4E76-B64F-EBF61C6C7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1215" windowWidth="10995" windowHeight="13365" xr2:uid="{B2B468B2-C258-4357-B83F-3FA22EAA3DE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B468B2-C258-4357-B83F-3FA22EAA3DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>강남구</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>SIG_KOR_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인가구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장인연봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장인수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -758,20 +770,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E106CE24-ADA8-4BCC-8556-0B676BCE14A5}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -799,8 +817,17 @@
       <c r="I1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -829,8 +856,17 @@
       <c r="I2">
         <v>283</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>95099</v>
+      </c>
+      <c r="K2">
+        <v>4300</v>
+      </c>
+      <c r="L2">
+        <v>666150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -859,8 +895,17 @@
       <c r="I3">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>74313</v>
+      </c>
+      <c r="K3">
+        <v>4470</v>
+      </c>
+      <c r="L3">
+        <v>62357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -889,8 +934,17 @@
       <c r="I4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>63836</v>
+      </c>
+      <c r="K4">
+        <v>3210</v>
+      </c>
+      <c r="L4">
+        <v>11733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -919,8 +973,17 @@
       <c r="I5">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>118270</v>
+      </c>
+      <c r="K5">
+        <v>4470</v>
+      </c>
+      <c r="L5">
+        <v>189549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -949,8 +1012,17 @@
       <c r="I6">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>165811</v>
+      </c>
+      <c r="K6">
+        <v>3330</v>
+      </c>
+      <c r="L6">
+        <v>29947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -979,8 +1051,17 @@
       <c r="I7">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>81256</v>
+      </c>
+      <c r="K7">
+        <v>3480</v>
+      </c>
+      <c r="L7">
+        <v>41463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1009,8 +1090,17 @@
       <c r="I8">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>72576</v>
+      </c>
+      <c r="K8">
+        <v>3710</v>
+      </c>
+      <c r="L8">
+        <v>109255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1039,8 +1129,17 @@
       <c r="I9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>58395</v>
+      </c>
+      <c r="K9">
+        <v>3700</v>
+      </c>
+      <c r="L9">
+        <v>142808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1069,8 +1168,17 @@
       <c r="I10">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>74565</v>
+      </c>
+      <c r="K10">
+        <v>3210</v>
+      </c>
+      <c r="L10">
+        <v>27065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1099,8 +1207,17 @@
       <c r="I11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>48682</v>
+      </c>
+      <c r="K11">
+        <v>3180</v>
+      </c>
+      <c r="L11">
+        <v>14123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1129,8 +1246,17 @@
       <c r="I12">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>82531</v>
+      </c>
+      <c r="K12">
+        <v>3400</v>
+      </c>
+      <c r="L12">
+        <v>40329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1159,8 +1285,17 @@
       <c r="I13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>84446</v>
+      </c>
+      <c r="K13">
+        <v>4230</v>
+      </c>
+      <c r="L13">
+        <v>40471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1189,8 +1324,17 @@
       <c r="I14">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>85055</v>
+      </c>
+      <c r="K14">
+        <v>4070</v>
+      </c>
+      <c r="L14">
+        <v>164319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1219,8 +1363,17 @@
       <c r="I15">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>63380</v>
+      </c>
+      <c r="K15">
+        <v>4080</v>
+      </c>
+      <c r="L15">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1249,8 +1402,17 @@
       <c r="I16">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>59336</v>
+      </c>
+      <c r="K16">
+        <v>5260</v>
+      </c>
+      <c r="L16">
+        <v>378075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1279,8 +1441,17 @@
       <c r="I17">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>57653</v>
+      </c>
+      <c r="K17">
+        <v>3840</v>
+      </c>
+      <c r="L17">
+        <v>158284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1309,8 +1480,17 @@
       <c r="I18">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>79845</v>
+      </c>
+      <c r="K18">
+        <v>3220</v>
+      </c>
+      <c r="L18">
+        <v>30113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1339,8 +1519,17 @@
       <c r="I19">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>103275</v>
+      </c>
+      <c r="K19">
+        <v>4260</v>
+      </c>
+      <c r="L19">
+        <v>229968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1369,8 +1558,17 @@
       <c r="I20">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>56418</v>
+      </c>
+      <c r="K20">
+        <v>3790</v>
+      </c>
+      <c r="L20">
+        <v>29925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1399,8 +1597,17 @@
       <c r="I21">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>90876</v>
+      </c>
+      <c r="K21">
+        <v>5650</v>
+      </c>
+      <c r="L21">
+        <v>423495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1429,8 +1636,17 @@
       <c r="I22">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>54174</v>
+      </c>
+      <c r="K22">
+        <v>4330</v>
+      </c>
+      <c r="L22">
+        <v>123108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1459,8 +1675,17 @@
       <c r="I23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>85088</v>
+      </c>
+      <c r="K23">
+        <v>3310</v>
+      </c>
+      <c r="L23">
+        <v>20823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1489,8 +1714,17 @@
       <c r="I24">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>37857</v>
+      </c>
+      <c r="K24">
+        <v>4970</v>
+      </c>
+      <c r="L24">
+        <v>221455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1519,8 +1753,17 @@
       <c r="I25">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>32752</v>
+      </c>
+      <c r="K25">
+        <v>5270</v>
+      </c>
+      <c r="L25">
+        <v>428089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1549,8 +1792,17 @@
       <c r="I26">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>81201</v>
+      </c>
+      <c r="K26">
+        <v>3530</v>
+      </c>
+      <c r="L26">
+        <v>21998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1579,8 +1831,17 @@
       <c r="I27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>44994</v>
+      </c>
+      <c r="K27">
+        <v>3360</v>
+      </c>
+      <c r="L27">
+        <v>21903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1609,8 +1870,17 @@
       <c r="I28">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>85587</v>
+      </c>
+      <c r="K28">
+        <v>3800</v>
+      </c>
+      <c r="L28">
+        <v>90398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1909,17 @@
       <c r="I29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>11590</v>
+      </c>
+      <c r="K29">
+        <v>4660</v>
+      </c>
+      <c r="L29">
+        <v>15265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1669,8 +1948,17 @@
       <c r="I30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>83179</v>
+      </c>
+      <c r="K30">
+        <v>3420</v>
+      </c>
+      <c r="L30">
+        <v>31256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1699,8 +1987,17 @@
       <c r="I31">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>77337</v>
+      </c>
+      <c r="K31">
+        <v>4110</v>
+      </c>
+      <c r="L31">
+        <v>54484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1729,8 +2026,17 @@
       <c r="I32">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>79560</v>
+      </c>
+      <c r="K32">
+        <v>3830</v>
+      </c>
+      <c r="L32">
+        <v>95769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1759,8 +2065,17 @@
       <c r="I33">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>48414</v>
+      </c>
+      <c r="K33">
+        <v>4410</v>
+      </c>
+      <c r="L33">
+        <v>59960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1789,8 +2104,17 @@
       <c r="I34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="3">
+        <v>34830</v>
+      </c>
+      <c r="K34">
+        <v>3900</v>
+      </c>
+      <c r="L34">
+        <v>49427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1819,8 +2143,17 @@
       <c r="I35">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>76849</v>
+      </c>
+      <c r="K35">
+        <v>3400</v>
+      </c>
+      <c r="L35">
+        <v>33982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1849,8 +2182,17 @@
       <c r="I36">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>47490</v>
+      </c>
+      <c r="K36">
+        <v>3530</v>
+      </c>
+      <c r="L36">
+        <v>47279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1879,8 +2221,17 @@
       <c r="I37">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>34523</v>
+      </c>
+      <c r="K37">
+        <v>3450</v>
+      </c>
+      <c r="L37">
+        <v>17189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1909,8 +2260,17 @@
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>6635</v>
+      </c>
+      <c r="K38">
+        <v>3990</v>
+      </c>
+      <c r="L38">
+        <v>27461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1939,8 +2299,17 @@
       <c r="I39">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>37730</v>
+      </c>
+      <c r="K39">
+        <v>4040</v>
+      </c>
+      <c r="L39">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1969,8 +2338,17 @@
       <c r="I40">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>59969</v>
+      </c>
+      <c r="K40">
+        <v>3560</v>
+      </c>
+      <c r="L40">
+        <v>55908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1999,8 +2377,17 @@
       <c r="I41">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>27542</v>
+      </c>
+      <c r="K41">
+        <v>3410</v>
+      </c>
+      <c r="L41">
+        <v>15654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2029,8 +2416,17 @@
       <c r="I42">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>38424</v>
+      </c>
+      <c r="K42">
+        <v>3830</v>
+      </c>
+      <c r="L42">
+        <v>37507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2059,8 +2455,17 @@
       <c r="I43">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>66678</v>
+      </c>
+      <c r="K43">
+        <v>3570</v>
+      </c>
+      <c r="L43">
+        <v>72868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2089,8 +2494,17 @@
       <c r="I44">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>93971</v>
+      </c>
+      <c r="K44">
+        <v>3400</v>
+      </c>
+      <c r="L44">
+        <v>62014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2119,8 +2533,17 @@
       <c r="I45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>19015</v>
+      </c>
+      <c r="K45">
+        <v>3360</v>
+      </c>
+      <c r="L45">
+        <v>7338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2149,8 +2572,17 @@
       <c r="I46">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>122102</v>
+      </c>
+      <c r="K46">
+        <v>3530</v>
+      </c>
+      <c r="L46">
+        <v>84854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2179,8 +2611,17 @@
       <c r="I47">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>61234</v>
+      </c>
+      <c r="K47">
+        <v>5150</v>
+      </c>
+      <c r="L47">
+        <v>238678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2209,8 +2650,17 @@
       <c r="I48">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>52480</v>
+      </c>
+      <c r="K48">
+        <v>3730</v>
+      </c>
+      <c r="L48">
+        <v>29616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2239,8 +2689,17 @@
       <c r="I49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>43872</v>
+      </c>
+      <c r="K49">
+        <v>3860</v>
+      </c>
+      <c r="L49">
+        <v>58594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2269,8 +2728,17 @@
       <c r="I50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>57872</v>
+      </c>
+      <c r="K50">
+        <v>3730</v>
+      </c>
+      <c r="L50">
+        <v>41003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2299,8 +2767,17 @@
       <c r="I51">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>55201</v>
+      </c>
+      <c r="K51">
+        <v>9410</v>
+      </c>
+      <c r="L51">
+        <v>172586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2329,8 +2806,17 @@
       <c r="I52">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>44998</v>
+      </c>
+      <c r="K52">
+        <v>3680</v>
+      </c>
+      <c r="L52">
+        <v>21174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -2359,8 +2845,17 @@
       <c r="I53">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>45281</v>
+      </c>
+      <c r="K53">
+        <v>3770</v>
+      </c>
+      <c r="L53">
+        <v>29223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2389,8 +2884,17 @@
       <c r="I54">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>82790</v>
+      </c>
+      <c r="K54">
+        <v>3930</v>
+      </c>
+      <c r="L54">
+        <v>97423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2419,8 +2923,17 @@
       <c r="I55">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>54652</v>
+      </c>
+      <c r="K55">
+        <v>4120</v>
+      </c>
+      <c r="L55">
+        <v>115402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2449,8 +2962,17 @@
       <c r="I56">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>62512</v>
+      </c>
+      <c r="K56">
+        <v>3440</v>
+      </c>
+      <c r="L56">
+        <v>21387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2479,8 +3001,17 @@
       <c r="I57">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>38680</v>
+      </c>
+      <c r="K57">
+        <v>3860</v>
+      </c>
+      <c r="L57">
+        <v>48172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2509,8 +3040,17 @@
       <c r="I58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>34633</v>
+      </c>
+      <c r="K58">
+        <v>4340</v>
+      </c>
+      <c r="L58">
+        <v>86901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2539,8 +3079,17 @@
       <c r="I59">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>36367</v>
+      </c>
+      <c r="K59">
+        <v>3780</v>
+      </c>
+      <c r="L59">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2569,8 +3118,17 @@
       <c r="I60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>37208</v>
+      </c>
+      <c r="K60">
+        <v>3500</v>
+      </c>
+      <c r="L60">
+        <v>34855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2599,8 +3157,17 @@
       <c r="I61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>22242</v>
+      </c>
+      <c r="K61">
+        <v>3610</v>
+      </c>
+      <c r="L61">
+        <v>16533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2629,8 +3196,17 @@
       <c r="I62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>42058</v>
+      </c>
+      <c r="K62">
+        <v>3590</v>
+      </c>
+      <c r="L62">
+        <v>27786</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2659,8 +3235,17 @@
       <c r="I63">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>50957</v>
+      </c>
+      <c r="K63">
+        <v>5050</v>
+      </c>
+      <c r="L63">
+        <v>98935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2689,8 +3274,17 @@
       <c r="I64">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>35112</v>
+      </c>
+      <c r="K64">
+        <v>3550</v>
+      </c>
+      <c r="L64">
+        <v>28746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -2719,8 +3313,17 @@
       <c r="I65">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>45129</v>
+      </c>
+      <c r="K65">
+        <v>3820</v>
+      </c>
+      <c r="L65">
+        <v>66283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2749,8 +3352,17 @@
       <c r="I66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <v>19285</v>
+      </c>
+      <c r="K66">
+        <v>3800</v>
+      </c>
+      <c r="L66">
+        <v>19754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2779,8 +3391,17 @@
       <c r="I67">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>77805</v>
+      </c>
+      <c r="K67">
+        <v>3320</v>
+      </c>
+      <c r="L67">
+        <v>25696</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2809,8 +3430,17 @@
       <c r="I68">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <v>42590</v>
+      </c>
+      <c r="K68">
+        <v>5940</v>
+      </c>
+      <c r="L68">
+        <v>76520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -2839,8 +3469,17 @@
       <c r="I69">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>81531</v>
+      </c>
+      <c r="K69">
+        <v>3620</v>
+      </c>
+      <c r="L69">
+        <v>77268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -2869,8 +3508,17 @@
       <c r="I70">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>113932</v>
+      </c>
+      <c r="K70">
+        <v>4540</v>
+      </c>
+      <c r="L70">
+        <v>163275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2899,8 +3547,17 @@
       <c r="I71">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>34095</v>
+      </c>
+      <c r="K71">
+        <v>3430</v>
+      </c>
+      <c r="L71">
+        <v>34297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -2929,8 +3586,17 @@
       <c r="I72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <v>52368</v>
+      </c>
+      <c r="K72">
+        <v>3520</v>
+      </c>
+      <c r="L72">
+        <v>39755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2958,6 +3624,15 @@
       </c>
       <c r="I73">
         <v>72</v>
+      </c>
+      <c r="J73">
+        <v>138075</v>
+      </c>
+      <c r="K73">
+        <v>4160</v>
+      </c>
+      <c r="L73">
+        <v>253090</v>
       </c>
     </row>
   </sheetData>
